--- a/Vehicle Rental System/VRS.xlsx
+++ b/Vehicle Rental System/VRS.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -550,6 +550,28 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>joe knight</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>jk@gmail.com</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1234567890</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>;q;q;q;q;q{Y|r$</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Vehicle Rental System/VRS.xlsx
+++ b/Vehicle Rental System/VRS.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -572,6 +572,28 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>om</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>falkfj@gmail.com</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1234567789</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>{Yc!|rc!r$}88a</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Vehicle Rental System/VRS.xlsx
+++ b/Vehicle Rental System/VRS.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -594,6 +594,28 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>om</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>joshu@gmail.com</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2345573213</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>udcq;uq8cd;qdc!;</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Vehicle Rental System/VRS.xlsx
+++ b/Vehicle Rental System/VRS.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -616,6 +616,28 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ram</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ram@gmail.com</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1234567843</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>kc_kc_kc_kc_</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Vehicle Rental System/VRS.xlsx
+++ b/Vehicle Rental System/VRS.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -638,6 +638,72 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>hari</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>hari@gmail.com</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1234567899</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Gqdck;~/dq;dNq/</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>om</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>johsi@.com</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1234567897</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>c!8uaw;qvb'i^&lt;_</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>om</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>om@.gmail.com</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1234567897</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>c!8uaw;qG/Ck~PJQj</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Vehicle Rental System/VRS.xlsx
+++ b/Vehicle Rental System/VRS.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -704,6 +704,28 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>shyam</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>shma@gm.com</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1234567896</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>qd8;udqJQjC;</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
